--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd84-Cd84.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd84-Cd84.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.3383885</v>
+        <v>0.280151</v>
       </c>
       <c r="H2">
-        <v>0.6767770000000001</v>
+        <v>0.560302</v>
       </c>
       <c r="I2">
-        <v>0.001226894222865089</v>
+        <v>0.0006731842915093249</v>
       </c>
       <c r="J2">
-        <v>0.0008182641230851897</v>
+        <v>0.0004492464103980896</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +558,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.3383885</v>
+        <v>0.280151</v>
       </c>
       <c r="N2">
-        <v>0.6767770000000001</v>
+        <v>0.560302</v>
       </c>
       <c r="O2">
-        <v>0.001226894222865089</v>
+        <v>0.0006731842915093249</v>
       </c>
       <c r="P2">
-        <v>0.0008182641230851897</v>
+        <v>0.0004492464103980896</v>
       </c>
       <c r="Q2">
-        <v>0.11450677693225</v>
+        <v>0.07848458280099999</v>
       </c>
       <c r="R2">
-        <v>0.4580271077290001</v>
+        <v>0.3139383312039999</v>
       </c>
       <c r="S2">
-        <v>1.505269434099731E-06</v>
+        <v>4.531770903349117E-07</v>
       </c>
       <c r="T2">
-        <v>6.695561751283745E-07</v>
+        <v>2.018223372555687E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.3383885</v>
+        <v>0.280151</v>
       </c>
       <c r="H3">
-        <v>0.6767770000000001</v>
+        <v>0.560302</v>
       </c>
       <c r="I3">
-        <v>0.001226894222865089</v>
+        <v>0.0006731842915093249</v>
       </c>
       <c r="J3">
-        <v>0.0008182641230851897</v>
+        <v>0.0004492464103980896</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +626,22 @@
         <v>0.026115</v>
       </c>
       <c r="O3">
-        <v>3.156169376335365E-05</v>
+        <v>2.091753824754748E-05</v>
       </c>
       <c r="P3">
-        <v>3.157460666418883E-05</v>
+        <v>2.09388329999645E-05</v>
       </c>
       <c r="Q3">
-        <v>0.0029456718925</v>
+        <v>0.002438714455</v>
       </c>
       <c r="R3">
-        <v>0.017674031355</v>
+        <v>0.01463228673</v>
       </c>
       <c r="S3">
-        <v>3.872285974209571E-08</v>
+        <v>1.408135816529445E-08</v>
       </c>
       <c r="T3">
-        <v>2.583636783383226E-08</v>
+        <v>9.406695563159114E-09</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +664,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.3383885</v>
+        <v>0.280151</v>
       </c>
       <c r="H4">
-        <v>0.6767770000000001</v>
+        <v>0.560302</v>
       </c>
       <c r="I4">
-        <v>0.001226894222865089</v>
+        <v>0.0006731842915093249</v>
       </c>
       <c r="J4">
-        <v>0.0008182641230851897</v>
+        <v>0.0004492464103980896</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>148.1417186666667</v>
+        <v>116.9487913333333</v>
       </c>
       <c r="N4">
-        <v>444.425156</v>
+        <v>350.846374</v>
       </c>
       <c r="O4">
-        <v>0.5371170084014044</v>
+        <v>0.2810201970958586</v>
       </c>
       <c r="P4">
-        <v>0.5373367601903413</v>
+        <v>0.2813062850403633</v>
       </c>
       <c r="Q4">
-        <v>50.12945396703534</v>
+        <v>32.76332084082466</v>
       </c>
       <c r="R4">
-        <v>300.776723802212</v>
+        <v>196.579925044948</v>
       </c>
       <c r="S4">
-        <v>0.0006589857546102626</v>
+        <v>0.0001891783822817864</v>
       </c>
       <c r="T4">
-        <v>0.0004396833928785864</v>
+        <v>0.000126375838776805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -723,46 +726,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.3383885</v>
+        <v>0.280151</v>
       </c>
       <c r="H5">
-        <v>0.6767770000000001</v>
+        <v>0.560302</v>
       </c>
       <c r="I5">
-        <v>0.001226894222865089</v>
+        <v>0.0006731842915093249</v>
       </c>
       <c r="J5">
-        <v>0.0008182641230851897</v>
+        <v>0.0004492464103980896</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.5643336666666666</v>
+        <v>0.9895445</v>
       </c>
       <c r="N5">
-        <v>1.693001</v>
+        <v>1.979089</v>
       </c>
       <c r="O5">
-        <v>0.002046102971589183</v>
+        <v>0.002377809870924784</v>
       </c>
       <c r="P5">
-        <v>0.002046940097916077</v>
+        <v>0.001586820373849004</v>
       </c>
       <c r="Q5">
-        <v>0.1909640229628334</v>
+        <v>0.2772218812195</v>
       </c>
       <c r="R5">
-        <v>1.145784137777</v>
+        <v>1.108887524878</v>
       </c>
       <c r="S5">
-        <v>2.51035191522986E-06</v>
+        <v>1.60070425330238E-06</v>
       </c>
       <c r="T5">
-        <v>1.674937644229211E-06</v>
+        <v>7.128733568982198E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -785,16 +788,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.3383885</v>
+        <v>0.280151</v>
       </c>
       <c r="H6">
-        <v>0.6767770000000001</v>
+        <v>0.560302</v>
       </c>
       <c r="I6">
-        <v>0.001226894222865089</v>
+        <v>0.0006731842915093249</v>
       </c>
       <c r="J6">
-        <v>0.0008182641230851897</v>
+        <v>0.0004492464103980896</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,90 +806,90 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>126.7558796666667</v>
+        <v>137.839305</v>
       </c>
       <c r="N6">
-        <v>380.267639</v>
+        <v>413.517915</v>
       </c>
       <c r="O6">
-        <v>0.459578432710378</v>
+        <v>0.33121871732945</v>
       </c>
       <c r="P6">
-        <v>0.4597664609819933</v>
+        <v>0.3315559090437877</v>
       </c>
       <c r="Q6">
-        <v>42.89273198658384</v>
+        <v>38.615819135055</v>
       </c>
       <c r="R6">
-        <v>257.356391919503</v>
+        <v>231.69491481033</v>
       </c>
       <c r="S6">
-        <v>0.0005638541240457548</v>
+        <v>0.0002229712375600531</v>
       </c>
       <c r="T6">
-        <v>0.0003762104000194118</v>
+        <v>0.0001489503019841971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.008704999999999999</v>
+        <v>0.280151</v>
       </c>
       <c r="H7">
-        <v>0.026115</v>
+        <v>0.560302</v>
       </c>
       <c r="I7">
-        <v>3.156169376335365E-05</v>
+        <v>0.0006731842915093249</v>
       </c>
       <c r="J7">
-        <v>3.157460666418883E-05</v>
+        <v>0.0004492464103980896</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3383885</v>
+        <v>160.091461</v>
       </c>
       <c r="N7">
-        <v>0.6767770000000001</v>
+        <v>480.274383</v>
       </c>
       <c r="O7">
-        <v>0.001226894222865089</v>
+        <v>0.3846891738740099</v>
       </c>
       <c r="P7">
-        <v>0.0008182641230851897</v>
+        <v>0.385080800298602</v>
       </c>
       <c r="Q7">
-        <v>0.0029456718925</v>
+        <v>44.849782890611</v>
       </c>
       <c r="R7">
-        <v>0.017674031355</v>
+        <v>269.098697343666</v>
       </c>
       <c r="S7">
-        <v>3.872285974209571E-08</v>
+        <v>0.0002589667089656828</v>
       </c>
       <c r="T7">
-        <v>2.583636783383226E-08</v>
+        <v>0.0001729961672473705</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,40 +918,40 @@
         <v>0.026115</v>
       </c>
       <c r="I8">
-        <v>3.156169376335365E-05</v>
+        <v>2.091753824754748E-05</v>
       </c>
       <c r="J8">
-        <v>3.157460666418883E-05</v>
+        <v>2.09388329999645E-05</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.008704999999999999</v>
+        <v>0.280151</v>
       </c>
       <c r="N8">
-        <v>0.026115</v>
+        <v>0.560302</v>
       </c>
       <c r="O8">
-        <v>3.156169376335365E-05</v>
+        <v>0.0006731842915093249</v>
       </c>
       <c r="P8">
-        <v>3.157460666418883E-05</v>
+        <v>0.0004492464103980896</v>
       </c>
       <c r="Q8">
-        <v>7.577702499999998E-05</v>
+        <v>0.002438714455</v>
       </c>
       <c r="R8">
-        <v>0.000681993225</v>
+        <v>0.01463228673</v>
       </c>
       <c r="S8">
-        <v>9.961405132117169E-10</v>
+        <v>1.408135816529445E-08</v>
       </c>
       <c r="T8">
-        <v>9.96955785998238E-10</v>
+        <v>9.406695563159114E-09</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,40 +980,40 @@
         <v>0.026115</v>
       </c>
       <c r="I9">
-        <v>3.156169376335365E-05</v>
+        <v>2.091753824754748E-05</v>
       </c>
       <c r="J9">
-        <v>3.157460666418883E-05</v>
+        <v>2.09388329999645E-05</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>148.1417186666667</v>
+        <v>0.008704999999999999</v>
       </c>
       <c r="N9">
-        <v>444.425156</v>
+        <v>0.026115</v>
       </c>
       <c r="O9">
-        <v>0.5371170084014044</v>
+        <v>2.091753824754748E-05</v>
       </c>
       <c r="P9">
-        <v>0.5373367601903413</v>
+        <v>2.09388329999645E-05</v>
       </c>
       <c r="Q9">
-        <v>1.289573660993333</v>
+        <v>7.577702499999998E-05</v>
       </c>
       <c r="R9">
-        <v>11.60616294894</v>
+        <v>0.000681993225</v>
       </c>
       <c r="S9">
-        <v>1.695232253425378E-05</v>
+        <v>4.375434063376116E-10</v>
       </c>
       <c r="T9">
-        <v>1.696619684921959E-05</v>
+        <v>4.384347274004025E-10</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,40 +1042,40 @@
         <v>0.026115</v>
       </c>
       <c r="I10">
-        <v>3.156169376335365E-05</v>
+        <v>2.091753824754748E-05</v>
       </c>
       <c r="J10">
-        <v>3.157460666418883E-05</v>
+        <v>2.09388329999645E-05</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5643336666666666</v>
+        <v>116.9487913333333</v>
       </c>
       <c r="N10">
-        <v>1.693001</v>
+        <v>350.846374</v>
       </c>
       <c r="O10">
-        <v>0.002046102971589183</v>
+        <v>0.2810201970958586</v>
       </c>
       <c r="P10">
-        <v>0.002046940097916077</v>
+        <v>0.2813062850403633</v>
       </c>
       <c r="Q10">
-        <v>0.004912524568333332</v>
+        <v>1.018039228556666</v>
       </c>
       <c r="R10">
-        <v>0.044212721115</v>
+        <v>9.16235305701</v>
       </c>
       <c r="S10">
-        <v>6.457847539758569E-08</v>
+        <v>5.878250721085952E-06</v>
       </c>
       <c r="T10">
-        <v>6.463132845685632E-08</v>
+        <v>5.890225324300579E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,164 +1104,164 @@
         <v>0.026115</v>
       </c>
       <c r="I11">
-        <v>3.156169376335365E-05</v>
+        <v>2.091753824754748E-05</v>
       </c>
       <c r="J11">
-        <v>3.157460666418883E-05</v>
+        <v>2.09388329999645E-05</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>126.7558796666667</v>
+        <v>0.9895445</v>
       </c>
       <c r="N11">
-        <v>380.267639</v>
+        <v>1.979089</v>
       </c>
       <c r="O11">
-        <v>0.459578432710378</v>
+        <v>0.002377809870924784</v>
       </c>
       <c r="P11">
-        <v>0.4597664609819933</v>
+        <v>0.001586820373849004</v>
       </c>
       <c r="Q11">
-        <v>1.103409932498333</v>
+        <v>0.008613984872499999</v>
       </c>
       <c r="R11">
-        <v>9.930689392485</v>
+        <v>0.051683909235</v>
       </c>
       <c r="S11">
-        <v>1.450507375344698E-05</v>
+        <v>4.973792892046511E-08</v>
       </c>
       <c r="T11">
-        <v>1.451694516289256E-05</v>
+        <v>3.322616680896554E-08</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>148.1417186666667</v>
+        <v>0.008704999999999999</v>
       </c>
       <c r="H12">
-        <v>444.425156</v>
+        <v>0.026115</v>
       </c>
       <c r="I12">
-        <v>0.5371170084014044</v>
+        <v>2.091753824754748E-05</v>
       </c>
       <c r="J12">
-        <v>0.5373367601903413</v>
+        <v>2.09388329999645E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3383885</v>
+        <v>137.839305</v>
       </c>
       <c r="N12">
-        <v>0.6767770000000001</v>
+        <v>413.517915</v>
       </c>
       <c r="O12">
-        <v>0.001226894222865089</v>
+        <v>0.33121871732945</v>
       </c>
       <c r="P12">
-        <v>0.0008182641230851897</v>
+        <v>0.3315559090437877</v>
       </c>
       <c r="Q12">
-        <v>50.12945396703534</v>
+        <v>1.199891150025</v>
       </c>
       <c r="R12">
-        <v>300.776723802212</v>
+        <v>10.799020350225</v>
       </c>
       <c r="S12">
-        <v>0.0006589857546102626</v>
+        <v>6.928280188042387E-06</v>
       </c>
       <c r="T12">
-        <v>0.0004396833928785864</v>
+        <v>6.942393809619291E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>148.1417186666667</v>
+        <v>0.008704999999999999</v>
       </c>
       <c r="H13">
-        <v>444.425156</v>
+        <v>0.026115</v>
       </c>
       <c r="I13">
-        <v>0.5371170084014044</v>
+        <v>2.091753824754748E-05</v>
       </c>
       <c r="J13">
-        <v>0.5373367601903413</v>
+        <v>2.09388329999645E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.008704999999999999</v>
+        <v>160.091461</v>
       </c>
       <c r="N13">
-        <v>0.026115</v>
+        <v>480.274383</v>
       </c>
       <c r="O13">
-        <v>3.156169376335365E-05</v>
+        <v>0.3846891738740099</v>
       </c>
       <c r="P13">
-        <v>3.157460666418883E-05</v>
+        <v>0.385080800298602</v>
       </c>
       <c r="Q13">
-        <v>1.289573660993333</v>
+        <v>1.393596168005</v>
       </c>
       <c r="R13">
-        <v>11.60616294894</v>
+        <v>12.542365512045</v>
       </c>
       <c r="S13">
-        <v>1.695232253425378E-05</v>
+        <v>8.046750507927043E-06</v>
       </c>
       <c r="T13">
-        <v>1.696619684921959E-05</v>
+        <v>8.063142568945108E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1266,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1281,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>148.1417186666667</v>
+        <v>116.9487913333333</v>
       </c>
       <c r="H14">
-        <v>444.425156</v>
+        <v>350.846374</v>
       </c>
       <c r="I14">
-        <v>0.5371170084014044</v>
+        <v>0.2810201970958586</v>
       </c>
       <c r="J14">
-        <v>0.5373367601903413</v>
+        <v>0.2813062850403633</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>148.1417186666667</v>
+        <v>0.280151</v>
       </c>
       <c r="N14">
-        <v>444.425156</v>
+        <v>0.560302</v>
       </c>
       <c r="O14">
-        <v>0.5371170084014044</v>
+        <v>0.0006731842915093249</v>
       </c>
       <c r="P14">
-        <v>0.5373367601903413</v>
+        <v>0.0004492464103980896</v>
       </c>
       <c r="Q14">
-        <v>21945.96880951382</v>
+        <v>32.76332084082466</v>
       </c>
       <c r="R14">
-        <v>197513.7192856244</v>
+        <v>196.579925044948</v>
       </c>
       <c r="S14">
-        <v>0.2884946807140744</v>
+        <v>0.0001891783822817864</v>
       </c>
       <c r="T14">
-        <v>0.2887307938518523</v>
+        <v>0.000126375838776805</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1328,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1343,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>148.1417186666667</v>
+        <v>116.9487913333333</v>
       </c>
       <c r="H15">
-        <v>444.425156</v>
+        <v>350.846374</v>
       </c>
       <c r="I15">
-        <v>0.5371170084014044</v>
+        <v>0.2810201970958586</v>
       </c>
       <c r="J15">
-        <v>0.5373367601903413</v>
+        <v>0.2813062850403633</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.5643336666666666</v>
+        <v>0.008704999999999999</v>
       </c>
       <c r="N15">
-        <v>1.693001</v>
+        <v>0.026115</v>
       </c>
       <c r="O15">
-        <v>0.002046102971589183</v>
+        <v>2.091753824754748E-05</v>
       </c>
       <c r="P15">
-        <v>0.002046940097916077</v>
+        <v>2.09388329999645E-05</v>
       </c>
       <c r="Q15">
-        <v>83.60135928146177</v>
+        <v>1.018039228556666</v>
       </c>
       <c r="R15">
-        <v>752.412233533156</v>
+        <v>9.16235305701</v>
       </c>
       <c r="S15">
-        <v>0.001098996706981205</v>
+        <v>5.878250721085952E-06</v>
       </c>
       <c r="T15">
-        <v>0.001099896160517925</v>
+        <v>5.890225324300579E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1390,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1405,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>148.1417186666667</v>
+        <v>116.9487913333333</v>
       </c>
       <c r="H16">
-        <v>444.425156</v>
+        <v>350.846374</v>
       </c>
       <c r="I16">
-        <v>0.5371170084014044</v>
+        <v>0.2810201970958586</v>
       </c>
       <c r="J16">
-        <v>0.5373367601903413</v>
+        <v>0.2813062850403633</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,60 +1426,60 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>126.7558796666667</v>
+        <v>116.9487913333333</v>
       </c>
       <c r="N16">
-        <v>380.267639</v>
+        <v>350.846374</v>
       </c>
       <c r="O16">
-        <v>0.459578432710378</v>
+        <v>0.2810201970958586</v>
       </c>
       <c r="P16">
-        <v>0.4597664609819933</v>
+        <v>0.2813062850403633</v>
       </c>
       <c r="Q16">
-        <v>18777.83386492519</v>
+        <v>13677.01979432754</v>
       </c>
       <c r="R16">
-        <v>169000.5047843267</v>
+        <v>123093.1781489479</v>
       </c>
       <c r="S16">
-        <v>0.2468473929032043</v>
+        <v>0.07897235117579519</v>
       </c>
       <c r="T16">
-        <v>0.2470494205882432</v>
+        <v>0.0791332260032101</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5643336666666666</v>
+        <v>116.9487913333333</v>
       </c>
       <c r="H17">
-        <v>1.693001</v>
+        <v>350.846374</v>
       </c>
       <c r="I17">
-        <v>0.002046102971589183</v>
+        <v>0.2810201970958586</v>
       </c>
       <c r="J17">
-        <v>0.002046940097916077</v>
+        <v>0.2813062850403633</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,122 +1488,122 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.3383885</v>
+        <v>0.9895445</v>
       </c>
       <c r="N17">
-        <v>0.6767770000000001</v>
+        <v>1.979089</v>
       </c>
       <c r="O17">
-        <v>0.001226894222865089</v>
+        <v>0.002377809870924784</v>
       </c>
       <c r="P17">
-        <v>0.0008182641230851897</v>
+        <v>0.001586820373849004</v>
       </c>
       <c r="Q17">
-        <v>0.1909640229628334</v>
+        <v>115.7260332455477</v>
       </c>
       <c r="R17">
-        <v>1.145784137777</v>
+        <v>694.356199473286</v>
       </c>
       <c r="S17">
-        <v>2.51035191522986E-06</v>
+        <v>0.000668212598583761</v>
       </c>
       <c r="T17">
-        <v>1.674937644229211E-06</v>
+        <v>0.0004463825443938238</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5643336666666666</v>
+        <v>116.9487913333333</v>
       </c>
       <c r="H18">
-        <v>1.693001</v>
+        <v>350.846374</v>
       </c>
       <c r="I18">
-        <v>0.002046102971589183</v>
+        <v>0.2810201970958586</v>
       </c>
       <c r="J18">
-        <v>0.002046940097916077</v>
+        <v>0.2813062850403633</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.008704999999999999</v>
+        <v>137.839305</v>
       </c>
       <c r="N18">
-        <v>0.026115</v>
+        <v>413.517915</v>
       </c>
       <c r="O18">
-        <v>3.156169376335365E-05</v>
+        <v>0.33121871732945</v>
       </c>
       <c r="P18">
-        <v>3.157460666418883E-05</v>
+        <v>0.3315559090437877</v>
       </c>
       <c r="Q18">
-        <v>0.004912524568333332</v>
+        <v>16120.14011797669</v>
       </c>
       <c r="R18">
-        <v>0.044212721115</v>
+        <v>145081.2610617902</v>
       </c>
       <c r="S18">
-        <v>6.457847539758569E-08</v>
+        <v>0.09307914922575951</v>
       </c>
       <c r="T18">
-        <v>6.463132845685632E-08</v>
+        <v>0.09326876105628849</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5643336666666666</v>
+        <v>116.9487913333333</v>
       </c>
       <c r="H19">
-        <v>1.693001</v>
+        <v>350.846374</v>
       </c>
       <c r="I19">
-        <v>0.002046102971589183</v>
+        <v>0.2810201970958586</v>
       </c>
       <c r="J19">
-        <v>0.002046940097916077</v>
+        <v>0.2813062850403633</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1609,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>148.1417186666667</v>
+        <v>160.091461</v>
       </c>
       <c r="N19">
-        <v>444.425156</v>
+        <v>480.274383</v>
       </c>
       <c r="O19">
-        <v>0.5371170084014044</v>
+        <v>0.3846891738740099</v>
       </c>
       <c r="P19">
-        <v>0.5373367601903413</v>
+        <v>0.385080800298602</v>
       </c>
       <c r="Q19">
-        <v>83.60135928146177</v>
+        <v>18722.50286673747</v>
       </c>
       <c r="R19">
-        <v>752.412233533156</v>
+        <v>168502.5258006372</v>
       </c>
       <c r="S19">
-        <v>0.001098996706981205</v>
+        <v>0.1081054274627173</v>
       </c>
       <c r="T19">
-        <v>0.001099896160517925</v>
+        <v>0.1083256493723697</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1638,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.5643336666666666</v>
+        <v>0.9895445</v>
       </c>
       <c r="H20">
-        <v>1.693001</v>
+        <v>1.979089</v>
       </c>
       <c r="I20">
-        <v>0.002046102971589183</v>
+        <v>0.002377809870924784</v>
       </c>
       <c r="J20">
-        <v>0.002046940097916077</v>
+        <v>0.001586820373849004</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.5643336666666666</v>
+        <v>0.280151</v>
       </c>
       <c r="N20">
-        <v>1.693001</v>
+        <v>0.560302</v>
       </c>
       <c r="O20">
-        <v>0.002046102971589183</v>
+        <v>0.0006731842915093249</v>
       </c>
       <c r="P20">
-        <v>0.002046940097916077</v>
+        <v>0.0004492464103980896</v>
       </c>
       <c r="Q20">
-        <v>0.3184724873334444</v>
+        <v>0.2772218812195</v>
       </c>
       <c r="R20">
-        <v>2.866252386001</v>
+        <v>1.108887524878</v>
       </c>
       <c r="S20">
-        <v>4.186537370346083E-06</v>
+        <v>1.60070425330238E-06</v>
       </c>
       <c r="T20">
-        <v>4.18996376445668E-06</v>
+        <v>7.128733568982198E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1700,217 +1703,217 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.5643336666666666</v>
+        <v>0.9895445</v>
       </c>
       <c r="H21">
-        <v>1.693001</v>
+        <v>1.979089</v>
       </c>
       <c r="I21">
-        <v>0.002046102971589183</v>
+        <v>0.002377809870924784</v>
       </c>
       <c r="J21">
-        <v>0.002046940097916077</v>
+        <v>0.001586820373849004</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>126.7558796666667</v>
+        <v>0.008704999999999999</v>
       </c>
       <c r="N21">
-        <v>380.267639</v>
+        <v>0.026115</v>
       </c>
       <c r="O21">
-        <v>0.459578432710378</v>
+        <v>2.091753824754748E-05</v>
       </c>
       <c r="P21">
-        <v>0.4597664609819933</v>
+        <v>2.09388329999645E-05</v>
       </c>
       <c r="Q21">
-        <v>71.53261034384877</v>
+        <v>0.008613984872499999</v>
       </c>
       <c r="R21">
-        <v>643.7934930946391</v>
+        <v>0.051683909235</v>
       </c>
       <c r="S21">
-        <v>0.0009403447968470035</v>
+        <v>4.973792892046511E-08</v>
       </c>
       <c r="T21">
-        <v>0.0009411144046610096</v>
+        <v>3.322616680896554E-08</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>126.7558796666667</v>
+        <v>0.9895445</v>
       </c>
       <c r="H22">
-        <v>380.267639</v>
+        <v>1.979089</v>
       </c>
       <c r="I22">
-        <v>0.459578432710378</v>
+        <v>0.002377809870924784</v>
       </c>
       <c r="J22">
-        <v>0.4597664609819933</v>
+        <v>0.001586820373849004</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3383885</v>
+        <v>116.9487913333333</v>
       </c>
       <c r="N22">
-        <v>0.6767770000000001</v>
+        <v>350.846374</v>
       </c>
       <c r="O22">
-        <v>0.001226894222865089</v>
+        <v>0.2810201970958586</v>
       </c>
       <c r="P22">
-        <v>0.0008182641230851897</v>
+        <v>0.2813062850403633</v>
       </c>
       <c r="Q22">
-        <v>42.89273198658384</v>
+        <v>115.7260332455477</v>
       </c>
       <c r="R22">
-        <v>257.356391919503</v>
+        <v>694.356199473286</v>
       </c>
       <c r="S22">
-        <v>0.0005638541240457548</v>
+        <v>0.000668212598583761</v>
       </c>
       <c r="T22">
-        <v>0.0003762104000194118</v>
+        <v>0.0004463825443938238</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>126.7558796666667</v>
+        <v>0.9895445</v>
       </c>
       <c r="H23">
-        <v>380.267639</v>
+        <v>1.979089</v>
       </c>
       <c r="I23">
-        <v>0.459578432710378</v>
+        <v>0.002377809870924784</v>
       </c>
       <c r="J23">
-        <v>0.4597664609819933</v>
+        <v>0.001586820373849004</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.008704999999999999</v>
+        <v>0.9895445</v>
       </c>
       <c r="N23">
-        <v>0.026115</v>
+        <v>1.979089</v>
       </c>
       <c r="O23">
-        <v>3.156169376335365E-05</v>
+        <v>0.002377809870924784</v>
       </c>
       <c r="P23">
-        <v>3.157460666418883E-05</v>
+        <v>0.001586820373849004</v>
       </c>
       <c r="Q23">
-        <v>1.103409932498333</v>
+        <v>0.9791983174802501</v>
       </c>
       <c r="R23">
-        <v>9.930689392485</v>
+        <v>3.916793269921</v>
       </c>
       <c r="S23">
-        <v>1.450507375344698E-05</v>
+        <v>5.65397978226734E-06</v>
       </c>
       <c r="T23">
-        <v>1.451694516289256E-05</v>
+        <v>2.517998898862294E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>126.7558796666667</v>
+        <v>0.9895445</v>
       </c>
       <c r="H24">
-        <v>380.267639</v>
+        <v>1.979089</v>
       </c>
       <c r="I24">
-        <v>0.459578432710378</v>
+        <v>0.002377809870924784</v>
       </c>
       <c r="J24">
-        <v>0.4597664609819933</v>
+        <v>0.001586820373849004</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1919,90 +1922,90 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>148.1417186666667</v>
+        <v>137.839305</v>
       </c>
       <c r="N24">
-        <v>444.425156</v>
+        <v>413.517915</v>
       </c>
       <c r="O24">
-        <v>0.5371170084014044</v>
+        <v>0.33121871732945</v>
       </c>
       <c r="P24">
-        <v>0.5373367601903413</v>
+        <v>0.3315559090437877</v>
       </c>
       <c r="Q24">
-        <v>18777.83386492519</v>
+        <v>136.3981261465725</v>
       </c>
       <c r="R24">
-        <v>169000.5047843267</v>
+        <v>818.3887568794349</v>
       </c>
       <c r="S24">
-        <v>0.2468473929032043</v>
+        <v>0.0007875751355010122</v>
       </c>
       <c r="T24">
-        <v>0.2470494205882432</v>
+        <v>0.0005261196715407097</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>126.7558796666667</v>
+        <v>0.9895445</v>
       </c>
       <c r="H25">
-        <v>380.267639</v>
+        <v>1.979089</v>
       </c>
       <c r="I25">
-        <v>0.459578432710378</v>
+        <v>0.002377809870924784</v>
       </c>
       <c r="J25">
-        <v>0.4597664609819933</v>
+        <v>0.001586820373849004</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5643336666666666</v>
+        <v>160.091461</v>
       </c>
       <c r="N25">
-        <v>1.693001</v>
+        <v>480.274383</v>
       </c>
       <c r="O25">
-        <v>0.002046102971589183</v>
+        <v>0.3846891738740099</v>
       </c>
       <c r="P25">
-        <v>0.002046940097916077</v>
+        <v>0.385080800298602</v>
       </c>
       <c r="Q25">
-        <v>71.53261034384877</v>
+        <v>158.4176247295145</v>
       </c>
       <c r="R25">
-        <v>643.7934930946391</v>
+        <v>950.505748377087</v>
       </c>
       <c r="S25">
-        <v>0.0009403447968470035</v>
+        <v>0.0009147177148755213</v>
       </c>
       <c r="T25">
-        <v>0.0009411144046610096</v>
+        <v>0.0006110540594919014</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2010,61 +2013,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>137.839305</v>
+      </c>
+      <c r="H26">
+        <v>413.517915</v>
+      </c>
+      <c r="I26">
+        <v>0.33121871732945</v>
+      </c>
+      <c r="J26">
+        <v>0.3315559090437877</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.280151</v>
+      </c>
+      <c r="N26">
+        <v>0.560302</v>
+      </c>
+      <c r="O26">
+        <v>0.0006731842915093249</v>
+      </c>
+      <c r="P26">
+        <v>0.0004492464103980896</v>
+      </c>
+      <c r="Q26">
+        <v>38.615819135055</v>
+      </c>
+      <c r="R26">
+        <v>231.69491481033</v>
+      </c>
+      <c r="S26">
+        <v>0.0002229712375600531</v>
+      </c>
+      <c r="T26">
+        <v>0.0001489503019841971</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>137.839305</v>
+      </c>
+      <c r="H27">
+        <v>413.517915</v>
+      </c>
+      <c r="I27">
+        <v>0.33121871732945</v>
+      </c>
+      <c r="J27">
+        <v>0.3315559090437877</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.008704999999999999</v>
+      </c>
+      <c r="N27">
+        <v>0.026115</v>
+      </c>
+      <c r="O27">
+        <v>2.091753824754748E-05</v>
+      </c>
+      <c r="P27">
+        <v>2.09388329999645E-05</v>
+      </c>
+      <c r="Q27">
+        <v>1.199891150025</v>
+      </c>
+      <c r="R27">
+        <v>10.799020350225</v>
+      </c>
+      <c r="S27">
+        <v>6.928280188042387E-06</v>
+      </c>
+      <c r="T27">
+        <v>6.942393809619291E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>137.839305</v>
+      </c>
+      <c r="H28">
+        <v>413.517915</v>
+      </c>
+      <c r="I28">
+        <v>0.33121871732945</v>
+      </c>
+      <c r="J28">
+        <v>0.3315559090437877</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>116.9487913333333</v>
+      </c>
+      <c r="N28">
+        <v>350.846374</v>
+      </c>
+      <c r="O28">
+        <v>0.2810201970958586</v>
+      </c>
+      <c r="P28">
+        <v>0.2813062850403633</v>
+      </c>
+      <c r="Q28">
+        <v>16120.14011797669</v>
+      </c>
+      <c r="R28">
+        <v>145081.2610617902</v>
+      </c>
+      <c r="S28">
+        <v>0.09307914922575951</v>
+      </c>
+      <c r="T28">
+        <v>0.09326876105628849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>137.839305</v>
+      </c>
+      <c r="H29">
+        <v>413.517915</v>
+      </c>
+      <c r="I29">
+        <v>0.33121871732945</v>
+      </c>
+      <c r="J29">
+        <v>0.3315559090437877</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0.9895445</v>
+      </c>
+      <c r="N29">
+        <v>1.979089</v>
+      </c>
+      <c r="O29">
+        <v>0.002377809870924784</v>
+      </c>
+      <c r="P29">
+        <v>0.001586820373849004</v>
+      </c>
+      <c r="Q29">
+        <v>136.3981261465725</v>
+      </c>
+      <c r="R29">
+        <v>818.3887568794349</v>
+      </c>
+      <c r="S29">
+        <v>0.0007875751355010122</v>
+      </c>
+      <c r="T29">
+        <v>0.0005261196715407097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>137.839305</v>
+      </c>
+      <c r="H30">
+        <v>413.517915</v>
+      </c>
+      <c r="I30">
+        <v>0.33121871732945</v>
+      </c>
+      <c r="J30">
+        <v>0.3315559090437877</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>137.839305</v>
+      </c>
+      <c r="N30">
+        <v>413.517915</v>
+      </c>
+      <c r="O30">
+        <v>0.33121871732945</v>
+      </c>
+      <c r="P30">
+        <v>0.3315559090437877</v>
+      </c>
+      <c r="Q30">
+        <v>18999.67400288302</v>
+      </c>
+      <c r="R30">
+        <v>170997.0660259472</v>
+      </c>
+      <c r="S30">
+        <v>0.1097058387093661</v>
+      </c>
+      <c r="T30">
+        <v>0.1099293208218524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>137.839305</v>
+      </c>
+      <c r="H31">
+        <v>413.517915</v>
+      </c>
+      <c r="I31">
+        <v>0.33121871732945</v>
+      </c>
+      <c r="J31">
+        <v>0.3315559090437877</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>160.091461</v>
+      </c>
+      <c r="N31">
+        <v>480.274383</v>
+      </c>
+      <c r="O31">
+        <v>0.3846891738740099</v>
+      </c>
+      <c r="P31">
+        <v>0.385080800298602</v>
+      </c>
+      <c r="Q31">
+        <v>22066.89572067461</v>
+      </c>
+      <c r="R31">
+        <v>198602.0614860714</v>
+      </c>
+      <c r="S31">
+        <v>0.1274162547410753</v>
+      </c>
+      <c r="T31">
+        <v>0.1276758147983122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>160.091461</v>
+      </c>
+      <c r="H32">
+        <v>480.274383</v>
+      </c>
+      <c r="I32">
+        <v>0.3846891738740099</v>
+      </c>
+      <c r="J32">
+        <v>0.385080800298602</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.280151</v>
+      </c>
+      <c r="N32">
+        <v>0.560302</v>
+      </c>
+      <c r="O32">
+        <v>0.0006731842915093249</v>
+      </c>
+      <c r="P32">
+        <v>0.0004492464103980896</v>
+      </c>
+      <c r="Q32">
+        <v>44.849782890611</v>
+      </c>
+      <c r="R32">
+        <v>269.098697343666</v>
+      </c>
+      <c r="S32">
+        <v>0.0002589667089656828</v>
+      </c>
+      <c r="T32">
+        <v>0.0001729961672473705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>160.091461</v>
+      </c>
+      <c r="H33">
+        <v>480.274383</v>
+      </c>
+      <c r="I33">
+        <v>0.3846891738740099</v>
+      </c>
+      <c r="J33">
+        <v>0.385080800298602</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.008704999999999999</v>
+      </c>
+      <c r="N33">
+        <v>0.026115</v>
+      </c>
+      <c r="O33">
+        <v>2.091753824754748E-05</v>
+      </c>
+      <c r="P33">
+        <v>2.09388329999645E-05</v>
+      </c>
+      <c r="Q33">
+        <v>1.393596168005</v>
+      </c>
+      <c r="R33">
+        <v>12.542365512045</v>
+      </c>
+      <c r="S33">
+        <v>8.046750507927043E-06</v>
+      </c>
+      <c r="T33">
+        <v>8.063142568945108E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>160.091461</v>
+      </c>
+      <c r="H34">
+        <v>480.274383</v>
+      </c>
+      <c r="I34">
+        <v>0.3846891738740099</v>
+      </c>
+      <c r="J34">
+        <v>0.385080800298602</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>116.9487913333333</v>
+      </c>
+      <c r="N34">
+        <v>350.846374</v>
+      </c>
+      <c r="O34">
+        <v>0.2810201970958586</v>
+      </c>
+      <c r="P34">
+        <v>0.2813062850403633</v>
+      </c>
+      <c r="Q34">
+        <v>18722.50286673747</v>
+      </c>
+      <c r="R34">
+        <v>168502.5258006372</v>
+      </c>
+      <c r="S34">
+        <v>0.1081054274627173</v>
+      </c>
+      <c r="T34">
+        <v>0.1083256493723697</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>160.091461</v>
+      </c>
+      <c r="H35">
+        <v>480.274383</v>
+      </c>
+      <c r="I35">
+        <v>0.3846891738740099</v>
+      </c>
+      <c r="J35">
+        <v>0.385080800298602</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.9895445</v>
+      </c>
+      <c r="N35">
+        <v>1.979089</v>
+      </c>
+      <c r="O35">
+        <v>0.002377809870924784</v>
+      </c>
+      <c r="P35">
+        <v>0.001586820373849004</v>
+      </c>
+      <c r="Q35">
+        <v>158.4176247295145</v>
+      </c>
+      <c r="R35">
+        <v>950.505748377087</v>
+      </c>
+      <c r="S35">
+        <v>0.0009147177148755213</v>
+      </c>
+      <c r="T35">
+        <v>0.0006110540594919014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>126.7558796666667</v>
-      </c>
-      <c r="H26">
-        <v>380.267639</v>
-      </c>
-      <c r="I26">
-        <v>0.459578432710378</v>
-      </c>
-      <c r="J26">
-        <v>0.4597664609819933</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>126.7558796666667</v>
-      </c>
-      <c r="N26">
-        <v>380.267639</v>
-      </c>
-      <c r="O26">
-        <v>0.459578432710378</v>
-      </c>
-      <c r="P26">
-        <v>0.4597664609819933</v>
-      </c>
-      <c r="Q26">
-        <v>16067.05303007048</v>
-      </c>
-      <c r="R26">
-        <v>144603.4772706344</v>
-      </c>
-      <c r="S26">
-        <v>0.2112123358125274</v>
-      </c>
-      <c r="T26">
-        <v>0.2113851986439067</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>160.091461</v>
+      </c>
+      <c r="H36">
+        <v>480.274383</v>
+      </c>
+      <c r="I36">
+        <v>0.3846891738740099</v>
+      </c>
+      <c r="J36">
+        <v>0.385080800298602</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>137.839305</v>
+      </c>
+      <c r="N36">
+        <v>413.517915</v>
+      </c>
+      <c r="O36">
+        <v>0.33121871732945</v>
+      </c>
+      <c r="P36">
+        <v>0.3315559090437877</v>
+      </c>
+      <c r="Q36">
+        <v>22066.89572067461</v>
+      </c>
+      <c r="R36">
+        <v>198602.0614860714</v>
+      </c>
+      <c r="S36">
+        <v>0.1274162547410753</v>
+      </c>
+      <c r="T36">
+        <v>0.1276758147983122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>160.091461</v>
+      </c>
+      <c r="H37">
+        <v>480.274383</v>
+      </c>
+      <c r="I37">
+        <v>0.3846891738740099</v>
+      </c>
+      <c r="J37">
+        <v>0.385080800298602</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>160.091461</v>
+      </c>
+      <c r="N37">
+        <v>480.274383</v>
+      </c>
+      <c r="O37">
+        <v>0.3846891738740099</v>
+      </c>
+      <c r="P37">
+        <v>0.385080800298602</v>
+      </c>
+      <c r="Q37">
+        <v>25629.27588511452</v>
+      </c>
+      <c r="R37">
+        <v>230663.4829660307</v>
+      </c>
+      <c r="S37">
+        <v>0.1479857604958682</v>
+      </c>
+      <c r="T37">
+        <v>0.1482872227586118</v>
       </c>
     </row>
   </sheetData>
